--- a/Data/Excels/Syncolon/150_160/FarPoints_68.xlsx
+++ b/Data/Excels/Syncolon/150_160/FarPoints_68.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A109"/>
+  <dimension ref="A1:A70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>86,00</t>
+          <t>90,00</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,11 @@
       <c r="A17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>834,00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -506,11 +510,7 @@
       <c r="A20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>802,00</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -537,11 +537,7 @@
       <c r="A29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>732,00</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -553,17 +549,17 @@
       <c r="A33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>750,00</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>688,00</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -608,7 +604,11 @@
       <c r="A50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>716,00</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -632,7 +632,11 @@
       <c r="A58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>620,00</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -650,7 +654,11 @@
       <c r="A64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>580,00</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -665,132 +673,7 @@
       <c r="A69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>674,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>578,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A70" t="inlineStr">
         <is>
           <t>232,00</t>
         </is>
